--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_ocean.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_ocean.xlsx
@@ -46,7 +46,7 @@
     <t>MCM-UA-1-0</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean</t>

--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_ocean.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="810">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -214,10 +214,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -274,7 +274,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>SSH: Sea Surface Height</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -430,7 +430,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM</t>
+    <t>LGM: Last Glacial Maximum</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -845,16 +845,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4</t>
-  </si>
-  <si>
-    <t>Isopycnic - other</t>
+    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - other: Other density-based coordinate</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -998,133 +998,136 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
+    <t>None: No diurnal cycle in ocean</t>
+  </si>
+  <si>
+    <t>Via coupling: Diurnal cycle via coupling frequency</t>
+  </si>
+  <si>
+    <t>Specific treatment: Specific treament</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of tracers time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Tracers time stepping scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
+    <t>Forward-backward: Forward-backward scheme</t>
+  </si>
+  <si>
+    <t>Forward operator: Forward operator scheme</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Time Step</t>
+  </si>
+  <si>
+    <t>Tracers time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics in ocean</t>
+  </si>
+  <si>
+    <t>3.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
+  </si>
+  <si>
+    <t>Preconditioned conjugate gradient</t>
+  </si>
+  <si>
+    <t>Sub cyling: Sub cycling relative to tracers</t>
+  </si>
+  <si>
+    <t>3.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Baroclinic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Barotropic</t>
+  </si>
+  <si>
+    <t>Barotropic time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Time splitting method</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Via coupling</t>
-  </si>
-  <si>
-    <t>Specific treatment</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of tracers time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Tracers time stepping scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2</t>
-  </si>
-  <si>
-    <t>AM3-LF</t>
-  </si>
-  <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
-    <t>Forward operator</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Time Step</t>
-  </si>
-  <si>
-    <t>Tracers time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics in ocean</t>
-  </si>
-  <si>
-    <t>3.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics type</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
-  </si>
-  <si>
-    <t>Preconditioned conjugate gradient</t>
-  </si>
-  <si>
-    <t>Sub cyling</t>
-  </si>
-  <si>
-    <t>3.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Baroclinic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Barotropic</t>
-  </si>
-  <si>
-    <t>Barotropic time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Splitting</t>
-  </si>
-  <si>
-    <t>Time splitting method</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
-  </si>
-  <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1385,10 +1388,13 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>Eddy active</t>
-  </si>
-  <si>
-    <t>Eddy admitting</t>
+    <t>None: No transient eddies in ocean</t>
+  </si>
+  <si>
+    <t>Eddy active: Full resolution of eddies</t>
+  </si>
+  <si>
+    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1436,10 +1442,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1454,10 +1460,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Higher order</t>
+    <t>Second order: Second order</t>
+  </si>
+  <si>
+    <t>Higher order: Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1679,7 +1685,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM</t>
+    <t>GM: Gent &amp; McWilliams</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -3101,20 +3107,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3125,10 +3131,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3136,7 +3142,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3147,10 +3153,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3163,10 +3169,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3174,10 +3180,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3185,10 +3191,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3196,10 +3202,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3212,10 +3218,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3223,10 +3229,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3239,10 +3245,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3250,10 +3256,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3266,10 +3272,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3277,10 +3283,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3293,10 +3299,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3304,10 +3310,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3320,20 +3326,20 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>138</v>
@@ -3344,10 +3350,10 @@
         <v>59</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
@@ -3356,16 +3362,16 @@
         <v>91</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>65</v>
@@ -3373,20 +3379,20 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>138</v>
@@ -3397,22 +3403,22 @@
         <v>59</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>65</v>
@@ -3420,20 +3426,20 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>233</v>
@@ -3444,22 +3450,22 @@
         <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>65</v>
@@ -3467,10 +3473,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -3478,10 +3484,10 @@
         <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3489,10 +3495,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3500,10 +3506,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3516,10 +3522,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3527,10 +3533,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3543,23 +3549,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3567,19 +3573,19 @@
         <v>59</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>65</v>
@@ -3587,10 +3593,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3598,22 +3604,22 @@
         <v>59</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>65</v>
@@ -3621,10 +3627,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3632,10 +3638,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -5643,13 +5649,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>65</v>
@@ -5657,7 +5663,7 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>340</v>
@@ -5668,10 +5674,10 @@
         <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5679,23 +5685,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5703,10 +5709,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5759,20 +5765,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5783,10 +5789,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5794,7 +5800,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -5805,10 +5811,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5821,20 +5827,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>138</v>
@@ -5845,27 +5851,27 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5873,10 +5879,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
@@ -5884,10 +5890,10 @@
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
@@ -5895,10 +5901,10 @@
         <v>139</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5906,23 +5912,23 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -5930,10 +5936,10 @@
         <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5941,10 +5947,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -5952,10 +5958,10 @@
         <v>139</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -5963,10 +5969,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -5974,10 +5980,10 @@
         <v>118</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5985,7 +5991,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -5996,10 +6002,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -6007,10 +6013,10 @@
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6018,10 +6024,10 @@
         <v>59</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6032,16 +6038,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>65</v>
@@ -6049,10 +6055,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6060,10 +6066,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6071,20 +6077,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6095,10 +6101,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6106,10 +6112,10 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -6117,10 +6123,10 @@
         <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6171,20 +6177,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6195,10 +6201,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6206,7 +6212,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -6217,10 +6223,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6233,7 +6239,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>233</v>
@@ -6244,43 +6250,43 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>453</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6288,28 +6294,28 @@
         <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>65</v>
@@ -6317,10 +6323,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6328,19 +6334,19 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>65</v>
@@ -6348,10 +6354,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6359,22 +6365,22 @@
         <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>65</v>
@@ -6382,20 +6388,20 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>138</v>
@@ -6406,22 +6412,22 @@
         <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>65</v>
@@ -6429,10 +6435,10 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
@@ -6440,10 +6446,10 @@
         <v>192</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6451,10 +6457,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6462,10 +6468,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6473,10 +6479,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6484,10 +6490,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6495,10 +6501,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -6506,10 +6512,10 @@
         <v>139</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6517,23 +6523,23 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6541,10 +6547,10 @@
         <v>139</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6552,10 +6558,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6563,10 +6569,10 @@
         <v>139</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6574,23 +6580,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6598,28 +6604,28 @@
         <v>59</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>65</v>
@@ -6627,10 +6633,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6638,19 +6644,19 @@
         <v>59</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>65</v>
@@ -6658,10 +6664,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6669,22 +6675,22 @@
         <v>59</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>65</v>
@@ -6692,20 +6698,20 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>138</v>
@@ -6716,22 +6722,22 @@
         <v>59</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>65</v>
@@ -6739,10 +6745,10 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -6750,10 +6756,10 @@
         <v>192</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6761,10 +6767,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6772,10 +6778,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6783,10 +6789,10 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -6794,10 +6800,10 @@
         <v>192</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6805,10 +6811,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6816,10 +6822,10 @@
         <v>139</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6827,20 +6833,20 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>138</v>
@@ -6851,16 +6857,16 @@
         <v>59</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>65</v>
@@ -6868,10 +6874,10 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
@@ -6879,10 +6885,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6890,10 +6896,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6901,10 +6907,10 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
@@ -6912,10 +6918,10 @@
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6923,10 +6929,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7009,20 +7015,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7033,10 +7039,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7044,7 +7050,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -7055,10 +7061,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7071,23 +7077,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
@@ -7095,10 +7101,10 @@
         <v>139</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7106,20 +7112,20 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>138</v>
@@ -7130,37 +7136,37 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>65</v>
@@ -7168,10 +7174,10 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
@@ -7179,10 +7185,10 @@
         <v>118</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7190,10 +7196,10 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
@@ -7201,10 +7207,10 @@
         <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7212,10 +7218,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7223,10 +7229,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -7234,20 +7240,20 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>138</v>
@@ -7258,37 +7264,37 @@
         <v>59</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11"/>
       <c r="AA47" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>65</v>
@@ -7296,10 +7302,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -7307,10 +7313,10 @@
         <v>118</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7318,10 +7324,10 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -7329,10 +7335,10 @@
         <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7340,10 +7346,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7351,10 +7357,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7362,23 +7368,23 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7386,22 +7392,22 @@
         <v>59</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>65</v>
@@ -7409,10 +7415,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7420,10 +7426,10 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
@@ -7431,10 +7437,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7442,10 +7448,10 @@
         <v>139</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7453,10 +7459,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7464,10 +7470,10 @@
         <v>139</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7475,20 +7481,20 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>138</v>
@@ -7499,31 +7505,31 @@
         <v>59</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>65</v>
@@ -7531,10 +7537,10 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -7542,10 +7548,10 @@
         <v>192</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7553,10 +7559,10 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
@@ -7564,10 +7570,10 @@
         <v>139</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7575,10 +7581,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7586,10 +7592,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
@@ -7597,20 +7603,20 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>138</v>
@@ -7621,31 +7627,31 @@
         <v>59</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>65</v>
@@ -7653,10 +7659,10 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -7664,10 +7670,10 @@
         <v>192</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7675,10 +7681,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7686,10 +7692,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7697,10 +7703,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7708,10 +7714,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -7787,20 +7793,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7811,10 +7817,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7822,7 +7828,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -7833,10 +7839,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7849,20 +7855,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>233</v>
@@ -7873,34 +7879,34 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>65</v>
@@ -7908,10 +7914,10 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -7919,10 +7925,10 @@
         <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7930,20 +7936,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>53</v>
@@ -7954,10 +7960,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -7970,10 +7976,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -7981,19 +7987,19 @@
         <v>59</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>65</v>
@@ -8001,10 +8007,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -8012,10 +8018,10 @@
         <v>192</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8023,10 +8029,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8034,10 +8040,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">

--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_ocean.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_ocean.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Documents\WPDocs\CMIP6_variable_tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5800AD1E-A51B-401C-84F0-1DC828CDE940}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="7. Uplow Boundaries" sheetId="9" r:id="rId9"/>
     <sheet name="8. Boundary Forcing" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="852">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -2458,11 +2464,137 @@
   <si>
     <t>cmip6.ocean.boundary_forcing.tracers.fresh_water_forcing.forced_mode_restoring</t>
   </si>
+  <si>
+    <t>Ronald J Stouffer</t>
+  </si>
+  <si>
+    <t>MOM1 plus</t>
+  </si>
+  <si>
+    <t>rigid lid, virtual salt flux, Bryan-Cox, isopycnal mixing</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Constant (-2C)</t>
+  </si>
+  <si>
+    <t>US Navy 1990 (approx.)</t>
+  </si>
+  <si>
+    <t>River outflow is mixed over the top 4 grid boxes at river mouths.</t>
+  </si>
+  <si>
+    <t>FORTRAN 77</t>
+  </si>
+  <si>
+    <t>2.3 deg</t>
+  </si>
+  <si>
+    <t>1.875 deg all latitudes</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOC, thermocline depth, SST, SSS </t>
+  </si>
+  <si>
+    <t>same as horizonal</t>
+  </si>
+  <si>
+    <t>Centered finite difference</t>
+  </si>
+  <si>
+    <t>centered finite difference</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>MOM1</t>
+  </si>
+  <si>
+    <t>rigid lid upper boundary, drag lower boundary</t>
+  </si>
+  <si>
+    <t>Haney</t>
+  </si>
+  <si>
+    <t>Bryan-Lewis</t>
+  </si>
+  <si>
+    <t>Bryan-Lewis (.3 at surface to 1 at bottom (cgs units))</t>
+  </si>
+  <si>
+    <t>drag (cd = .001)</t>
+  </si>
+  <si>
+    <t>Heat and water flux adjustments are applied each time step. The adjustments are a function of I and j and month. They repeat exactly year to year and in all experiments.</t>
+  </si>
+  <si>
+    <t>Bryan+Lewis1979</t>
+  </si>
+  <si>
+    <t>Top Level</t>
+  </si>
+  <si>
+    <t>Redi_isopc_1982</t>
+  </si>
+  <si>
+    <t>Regular lat-long "B" grid with 18 vertical levels. The model uses Fourier filtering to control grid noise near the poles.</t>
+  </si>
+  <si>
+    <t>Leapfrog with Euler backward step every 17 time steps to filter noise/control time step splitting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manabe bucket on land points. When bucket overflows, water is routed to ocean using present day river network. Rain at ocean grid location plus river flow passed to ocean. For large rivers, water spread over top 4 grid boxes in ocean. </t>
+  </si>
+  <si>
+    <t>The component is a coupled version of MOM1 ocean model. See MOM1 documentation for complete details. Pacanowski R, Dixon K, Rosati A (1991) The GFDL ModularOcean Model users guide version 1, GFDL Ocean Group TechRep 2, pp. 44 [Available from NOAA/Geophysical Fluid Dynamics Laboratory, Princeton University, Rt. 1, Princeton, NJ 08542.</t>
+  </si>
+  <si>
+    <t>github.com/mom-ocean/MOM1</t>
+  </si>
+  <si>
+    <t>N40L18</t>
+  </si>
+  <si>
+    <t>Used ocean only to tune model. Flux adjustments used in coupled model. Model tuned to yield good overall simulation.</t>
+  </si>
+  <si>
+    <t>centered finite difference, 40m deep top grid box simulates PBL, virtual salt flux top boundary condition.</t>
+  </si>
+  <si>
+    <t>fluxes computed in atmosphere and passed to ocean/sea ice. Fluxes computed in sea ice passed to ocean. Ocean gives SST to sea ice code and atmosphere.</t>
+  </si>
+  <si>
+    <t>no EIV</t>
+  </si>
+  <si>
+    <t>2nd order centered finite difference</t>
+  </si>
+  <si>
+    <t>mechanical energy conversion</t>
+  </si>
+  <si>
+    <t>Model conserves heat and water and salt. Online diagnostics perform checks several times per model year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no-slip sides (as per the B-grid), constant viscosity laplacian horizontal friction, isopyncal tracer diffusion (Cox MD (1987) Isopycnal diffusion in a Z-coordinate ocean model.Ocean Model 74: 1–5), does not use Gent-McWilliams eddy induced velocity. </t>
+  </si>
+  <si>
+    <t>Careful attention paid to overflows, important narrow channels, ridges and etc. 2 grid point basins on UV grid were eliminated. Shallow points were deepened to 4 vertical grid levels.</t>
+  </si>
+  <si>
+    <t>Isolated inland seas on grid but not in reality are mixed using a cross land mixing code where boxes at the same grid level are mixed east-west near the location of the observed opening.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -2609,7 +2741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2653,12 +2785,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2705,7 +2848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2737,9 +2880,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2771,6 +2932,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2946,24 +3125,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2971,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +3174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3003,42 +3182,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20.25">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20.25">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20.25">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3046,7 +3225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3054,7 +3233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3062,7 +3241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -3070,13 +3249,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="20.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="20.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3084,20 +3263,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -3138,7 +3319,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3164,8 +3347,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -3187,7 +3372,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
@@ -3213,8 +3400,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -3240,8 +3429,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
@@ -3267,8 +3458,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="178" customHeight="1">
-      <c r="B30" s="11"/>
+    <row r="30" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
@@ -3294,8 +3487,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="178" customHeight="1">
-      <c r="B35" s="11"/>
+    <row r="35" spans="1:32" ht="177.95" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
@@ -3321,8 +3516,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+    <row r="40" spans="1:32" ht="177.95" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -3357,7 +3554,9 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>762</v>
+      </c>
       <c r="AA48" s="6" t="s">
         <v>91</v>
       </c>
@@ -3410,7 +3609,9 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>770</v>
+      </c>
       <c r="AA56" s="6" t="s">
         <v>364</v>
       </c>
@@ -3457,7 +3658,12 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>820</v>
+      </c>
       <c r="AA64" s="6" t="s">
         <v>777</v>
       </c>
@@ -3491,7 +3697,9 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
@@ -3517,8 +3725,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11"/>
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
@@ -3580,7 +3790,9 @@
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
-      <c r="B86" s="11"/>
+      <c r="B86" s="11" t="s">
+        <v>800</v>
+      </c>
       <c r="AA86" s="6" t="s">
         <v>799</v>
       </c>
@@ -3611,7 +3823,9 @@
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
+      <c r="B90" s="11" t="s">
+        <v>800</v>
+      </c>
       <c r="AA90" s="6" t="s">
         <v>799</v>
       </c>
@@ -3645,27 +3859,23 @@
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
-      <c r="B94" s="11"/>
+      <c r="B94" s="11" t="s">
+        <v>828</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>AA48:AF48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B90 B64" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>AA56:AD56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>AA64:AD64</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86" xr:uid="{00000000-0002-0000-0900-000004000000}">
       <formula1>AA86:AC86</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
-      <formula1>AA90:AD90</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3673,19 +3883,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="80.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -3696,7 +3908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -3712,7 +3924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -3720,11 +3932,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>810</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -3740,7 +3954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -3748,34 +3962,104 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" t="s">
+        <v>833</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" t="s">
+        <v>833</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" t="s">
+        <v>833</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" t="s">
+        <v>833</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" t="s">
+        <v>833</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" t="s">
+        <v>833</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" t="s">
+        <v>835</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>442</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B25" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Timestepping Framework,Advection,Lateral Physics,Vertical Physics,Uplow Boundaries,Boundary Forcing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH203"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -3816,7 +4100,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3843,7 +4129,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -3869,10 +4157,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
@@ -3880,7 +4170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>59</v>
       </c>
@@ -3891,8 +4181,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:30" ht="24" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>62</v>
       </c>
@@ -3906,7 +4198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>66</v>
       </c>
@@ -3914,7 +4206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>59</v>
       </c>
@@ -3925,13 +4217,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="24" customHeight="1">
+    <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="AA25" s="6" t="s">
         <v>70</v>
       </c>
@@ -3945,7 +4239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>73</v>
       </c>
@@ -3953,7 +4247,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>59</v>
       </c>
@@ -3964,153 +4258,151 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="24" customHeight="1">
+    <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
+    <row r="30" spans="1:30" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="B31" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="24" customHeight="1">
+      <c r="B32" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1">
+      <c r="B33" s="10" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AA34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AC34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AD34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AE34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AF34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="AG34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH30" s="6" t="s">
+      <c r="AH34" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
+    <row r="37" spans="1:34" ht="24" customHeight="1">
+      <c r="A37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+    <row r="38" spans="1:34" ht="24" customHeight="1">
+      <c r="B38" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="40" spans="1:34" ht="24" customHeight="1">
+      <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
+    <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="AA42" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="AA46" s="6" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="24" customHeight="1">
@@ -4118,27 +4410,29 @@
         <v>59</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="AA50" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
@@ -4146,49 +4440,62 @@
         <v>59</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="AA54" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="AA58" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="60" spans="1:28" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
@@ -4196,247 +4503,259 @@
         <v>118</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="B62" s="11"/>
     </row>
+    <row r="64" spans="1:28" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="A69" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="13" t="s">
+    <row r="70" spans="1:32" ht="24" customHeight="1">
+      <c r="B70" s="13" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD70" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF70" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA74" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="24" customHeight="1">
+      <c r="B78" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="24" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="A81" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="B82" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="178" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
+    <row r="83" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B83" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B90" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="B91" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="8" t="s">
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="B95" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
+    <row r="96" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B96" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="14" t="s">
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="8" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="B100" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="178" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
+    <row r="101" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B101" s="11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B104" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -4444,21 +4763,23 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
+      <c r="B109" s="11" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -4466,61 +4787,65 @@
         <v>44</v>
       </c>
       <c r="B112" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="B113" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="B117" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B121" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -4528,21 +4853,23 @@
         <v>44</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
+      <c r="B126" s="11" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -4550,43 +4877,47 @@
         <v>44</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="11" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
+      <c r="B134" s="11" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="A136" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
@@ -4594,298 +4925,318 @@
         <v>192</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
+      <c r="B138" s="11">
+        <v>192</v>
+      </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="14" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
+      <c r="B142" s="11">
+        <v>18</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="B146" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="A148" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="A149" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B149" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="12" t="s">
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="B150" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="A153" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B153" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="13" t="s">
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="B154" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="A156" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B156" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="A157" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B157" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="B158" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="9" t="s">
+    <row r="159" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B159" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1">
+      <c r="A161" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B161" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="14" t="s">
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="A162" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B162" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C162" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="8" t="s">
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="B163" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11"/>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="9" t="s">
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="B164" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
+      <c r="A166" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B166" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="14" t="s">
+    <row r="167" spans="1:3" ht="24" customHeight="1">
+      <c r="A167" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B167" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C167" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="8" t="s">
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="B168" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
+    <row r="169" spans="1:3" ht="24" customHeight="1">
+      <c r="B169" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1">
+      <c r="A171" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B171" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="14" t="s">
+    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="A172" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B172" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C172" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="8" t="s">
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="B173" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
+    <row r="174" spans="1:3" ht="24" customHeight="1">
+      <c r="B174" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" ht="24" customHeight="1">
+      <c r="A177" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B177" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
+    <row r="178" spans="1:32" ht="24" customHeight="1">
+      <c r="B178" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
+    <row r="180" spans="1:32" ht="24" customHeight="1">
+      <c r="A180" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
+    <row r="181" spans="1:32" ht="24" customHeight="1">
+      <c r="A181" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B181" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
+    <row r="182" spans="1:32" ht="24" customHeight="1">
+      <c r="B182" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
-    </row>
-    <row r="181" spans="1:32" ht="24" customHeight="1">
-      <c r="A181" s="9" t="s">
+    <row r="183" spans="1:32" ht="177.95" customHeight="1">
+      <c r="B183" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32" ht="24" customHeight="1">
+      <c r="A185" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="24" customHeight="1">
-      <c r="A182" s="14" t="s">
+    <row r="186" spans="1:32" ht="24" customHeight="1">
+      <c r="A186" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B186" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C186" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
+    <row r="187" spans="1:32" ht="24" customHeight="1">
+      <c r="B187" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="24" customHeight="1">
-      <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
+    <row r="188" spans="1:32" ht="24" customHeight="1">
+      <c r="B188" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="AB184" s="6" t="s">
+    </row>
+    <row r="189" spans="1:32" ht="24" customHeight="1">
+      <c r="B189" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA189" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB189" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AC184" s="6" t="s">
+      <c r="AC189" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AD184" s="6" t="s">
+      <c r="AD189" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AE184" s="6" t="s">
+      <c r="AE189" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AF184" s="6" t="s">
+      <c r="AF189" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="186" spans="1:32" ht="24" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="187" spans="1:32" ht="24" customHeight="1">
-      <c r="A187" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:32" ht="24" customHeight="1">
-      <c r="B189" s="11"/>
     </row>
     <row r="191" spans="1:32" ht="24" customHeight="1">
       <c r="A191" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:32" ht="24" customHeight="1">
@@ -4893,10 +5244,10 @@
         <v>44</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -4905,88 +5256,86 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
-      <c r="B194" s="11"/>
+      <c r="B194" s="11" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
       <c r="A196" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="A197" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="24" customHeight="1">
+      <c r="B198" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="24" customHeight="1">
+      <c r="B199" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="24" customHeight="1">
+      <c r="A201" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="24" customHeight="1">
+      <c r="A202" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B202" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C202" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="24" customHeight="1">
-      <c r="B198" s="11"/>
+    <row r="203" spans="1:3" ht="24" customHeight="1">
+      <c r="B203" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B25" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AD25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>AA34:AH34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AH30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42 B188:B189 B74" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>AA42:AF42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AF38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AB42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B58 B54 B50" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>AA46:AB46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AB50</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B150 B66" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AB54</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78 B203 B146" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138 B142" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AF184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4994,12 +5343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -5040,7 +5391,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5066,8 +5419,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -5102,7 +5457,9 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>269</v>
       </c>
@@ -5201,7 +5558,9 @@
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="AA31" s="6" t="s">
         <v>292</v>
       </c>
@@ -5235,7 +5594,9 @@
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>299</v>
+      </c>
       <c r="AA35" s="6" t="s">
         <v>299</v>
       </c>
@@ -5272,7 +5633,9 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>306</v>
+      </c>
       <c r="AA39" s="6" t="s">
         <v>306</v>
       </c>
@@ -5290,21 +5653,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AN19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>AA31:AD31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B39" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>AA35:AE35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AE39</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5312,12 +5672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -5358,7 +5720,9 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5384,8 +5748,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -5407,7 +5773,9 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>323</v>
+      </c>
       <c r="AA15" s="6" t="s">
         <v>323</v>
       </c>
@@ -5454,7 +5822,9 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>333</v>
+      </c>
       <c r="AA23" s="6" t="s">
         <v>332</v>
       </c>
@@ -5500,7 +5870,9 @@
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
@@ -5566,7 +5938,9 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>333</v>
+      </c>
       <c r="AA39" s="6" t="s">
         <v>332</v>
       </c>
@@ -5612,7 +5986,9 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
@@ -5647,7 +6023,9 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>364</v>
+      </c>
       <c r="AA51" s="6" t="s">
         <v>364</v>
       </c>
@@ -5681,7 +6059,9 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="B55" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
@@ -5716,33 +6096,23 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>822</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B51" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B39" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>AA23:AH23</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B55 B43" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>AA35:AC35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AH39</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>AA51:AD51</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5750,12 +6120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -5796,7 +6168,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5822,8 +6196,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -5858,7 +6234,9 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>393</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>392</v>
       </c>
@@ -5886,7 +6264,9 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
@@ -5908,7 +6288,9 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
@@ -5943,7 +6325,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
@@ -5965,7 +6349,9 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
@@ -5987,7 +6373,9 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
@@ -6009,7 +6397,9 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6036,7 +6426,9 @@
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="AA52" s="6" t="s">
         <v>424</v>
       </c>
@@ -6073,7 +6465,9 @@
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
@@ -6108,7 +6502,9 @@
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
@@ -6130,31 +6526,27 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AB19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B68 B39" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>AA52:AE52</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6162,12 +6554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -6208,7 +6602,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6234,8 +6630,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -6257,7 +6655,9 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>453</v>
+      </c>
       <c r="AA15" s="6" t="s">
         <v>453</v>
       </c>
@@ -6301,7 +6701,9 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>463</v>
+      </c>
       <c r="AA23" s="6" t="s">
         <v>463</v>
       </c>
@@ -6341,7 +6743,9 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="AA27" s="6" t="s">
         <v>471</v>
       </c>
@@ -6372,7 +6776,9 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>477</v>
+      </c>
       <c r="AA31" s="6" t="s">
         <v>477</v>
       </c>
@@ -6419,7 +6825,9 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="AA39" s="6" t="s">
         <v>486</v>
       </c>
@@ -6453,7 +6861,9 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="15">
+        <v>120000</v>
+      </c>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
@@ -6519,7 +6929,9 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
@@ -6554,7 +6966,9 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
@@ -6576,7 +6990,9 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
@@ -6611,7 +7027,9 @@
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>464</v>
+      </c>
       <c r="AA75" s="6" t="s">
         <v>463</v>
       </c>
@@ -6651,7 +7069,9 @@
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B79" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="AA79" s="6" t="s">
         <v>471</v>
       </c>
@@ -6682,7 +7102,9 @@
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>477</v>
+      </c>
       <c r="AA83" s="6" t="s">
         <v>477</v>
       </c>
@@ -6729,7 +7151,9 @@
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="AA91" s="6" t="s">
         <v>486</v>
       </c>
@@ -6807,7 +7231,9 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="B103" s="11"/>
+      <c r="B103" s="15">
+        <v>400</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
@@ -6829,7 +7255,9 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="B107" s="11"/>
+      <c r="B107" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
@@ -6864,7 +7292,12 @@
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>845</v>
+      </c>
       <c r="AA115" s="6" t="s">
         <v>552</v>
       </c>
@@ -6914,7 +7347,9 @@
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
@@ -6936,63 +7371,29 @@
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B79 B27" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AC15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B75" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>AA23:AF23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B91 B83 B39" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>AA31:AD31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AD39</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B119 B103 B95" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55 B107 B67 B63" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>AA75:AF75</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AC79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
-      <formula1>AA83:AD83</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AD91</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B115" xr:uid="{00000000-0002-0000-0600-000010000000}">
       <formula1>AA115:AB115</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7000,12 +7401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AI119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -7046,7 +7449,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -7072,8 +7477,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -7108,7 +7515,9 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
@@ -7399,7 +7808,9 @@
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>628</v>
+      </c>
       <c r="AA67" s="6" t="s">
         <v>628</v>
       </c>
@@ -7433,7 +7844,9 @@
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
@@ -7455,7 +7868,9 @@
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
@@ -7477,7 +7892,9 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B79" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
@@ -7512,7 +7929,12 @@
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>829</v>
+      </c>
       <c r="AA87" s="6" t="s">
         <v>587</v>
       </c>
@@ -7577,7 +7999,9 @@
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
+      <c r="B95" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
@@ -7599,7 +8023,9 @@
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
@@ -7724,53 +8150,25 @@
       <c r="B119" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B95 B79 B75" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B47" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>AA27:AI27</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B51" xr:uid="{00000000-0002-0000-0700-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B111 B91 B55" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>AA47:AI47</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>AA67:AD67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87 B107" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>AA87:AG87</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107">
-      <formula1>AA107:AG107</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7778,12 +8176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -7824,7 +8224,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -7850,8 +8252,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -7886,7 +8290,12 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>820</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>690</v>
       </c>
@@ -7932,7 +8341,9 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -7971,8 +8382,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="178" customHeight="1">
-      <c r="B32" s="11"/>
+    <row r="32" spans="1:34" ht="177.95" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
@@ -7994,7 +8407,12 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>820</v>
+      </c>
       <c r="AA36" s="6" t="s">
         <v>711</v>
       </c>
@@ -8051,21 +8469,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
+    <row r="45" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>820</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA19:AH19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>AA36:AC36</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
